--- a/cost_estimation.xlsx
+++ b/cost_estimation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberto/Documents/02_Projects/wow_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B4588-FE22-1540-A03B-C06318C5A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7B7123-2BFC-9749-B929-0748A41BCAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage-pre" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="2" r:id="rId2"/>
     <sheet name="Usage-post" sheetId="3" r:id="rId3"/>
+    <sheet name="Cost (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>Number of servers</t>
   </si>
@@ -163,16 +164,23 @@
   </si>
   <si>
     <t>per day</t>
+  </si>
+  <si>
+    <t>per month</t>
+  </si>
+  <si>
+    <t>per year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-380A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,6 +203,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,6 +267,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,13 +489,13 @@
   </sheetPr>
   <dimension ref="B4:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A9" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -493,7 +510,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -508,7 +525,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -519,7 +536,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -532,7 +549,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -540,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>6.64</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -551,7 +568,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -562,20 +579,20 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5">
-        <v>153752</v>
+        <v>632824</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5">
         <f>D10/1024</f>
-        <v>150.1484375</v>
+        <v>617.9921875</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>8</v>
@@ -584,7 +601,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -595,7 +612,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -619,7 +636,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -641,7 +658,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -652,7 +669,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -675,7 +692,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -686,7 +703,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
@@ -708,7 +725,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -719,7 +736,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -732,7 +749,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -759,7 +776,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -770,7 +787,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="12" t="s">
@@ -779,14 +796,14 @@
       <c r="E22" s="11"/>
       <c r="F22" s="2">
         <f>F20/D8</f>
-        <v>9759.0361445783128</v>
+        <v>498.46153846153845</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -797,7 +814,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -810,7 +827,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
@@ -830,7 +847,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -841,7 +858,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="12" t="s">
         <v>22</v>
@@ -850,27 +867,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f>F22*F10*D4</f>
-        <v>586121611.44578314</v>
+        <v>123218134.61538462</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="3">
         <f>F27/1024</f>
-        <v>572384.3861775226</v>
+        <v>120330.20958533655</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="3">
         <f>H27/1024</f>
-        <v>558.96912712648691</v>
+        <v>117.50997029818022</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -881,27 +898,27 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="8">
         <f>F22*F15</f>
-        <v>26731010.212725904</v>
+        <v>1365337.7524038462</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
         <f>F29/1024</f>
-        <v>26104.50216086514</v>
+        <v>1333.3376488318811</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="3">
         <f>H29/1024</f>
-        <v>25.492677891469864</v>
+        <v>1.3020875476873839</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>24</v>
@@ -926,34 +943,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="8">
         <f>F22*F17</f>
-        <v>19518.072289156626</v>
+        <v>996.92307692307691</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="3">
         <f>F33/1024</f>
-        <v>19.060617469879517</v>
+        <v>0.97355769230769229</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="3">
         <f>H33/1024</f>
-        <v>1.8613884247929216E-2</v>
+        <v>9.5073993389423075E-4</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="8">
         <f>J33*8</f>
-        <v>0.14891107398343373</v>
+        <v>7.605919471153846E-3</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>30</v>
@@ -975,13 +992,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B4:J16"/>
+  <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
@@ -989,7 +1008,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1001,13 +1020,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
@@ -1029,14 +1048,14 @@
         <v>864</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
@@ -1051,21 +1070,21 @@
         <v>39</v>
       </c>
       <c r="G9" s="3">
-        <v>26104.50216086514</v>
+        <v>1333.3376488318811</v>
       </c>
       <c r="H9" s="9">
         <f>G9*D9</f>
-        <v>1305.225108043257</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <v>66.666882441594055</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1087,14 +1106,14 @@
         <v>1.4891107398343373E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1113,13 +1132,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1128,10 +1147,28 @@
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H16" s="9">
         <f>SUM(H7:H13)</f>
-        <v>2529.2399991506554</v>
+        <v>1290.6817735489924</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="13">
+        <f>H16*30</f>
+        <v>38720.453206469771</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="13">
+        <f>H18*12</f>
+        <v>464645.43847763725</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1152,11 +1189,13 @@
   </sheetPr>
   <dimension ref="B4:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1210,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1225,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1197,7 +1236,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1249,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>49.8</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -1229,7 +1268,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1240,18 +1279,21 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <f>499960+3704280</f>
+        <v>4204240</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5">
         <f>D10/1024</f>
-        <v>0</v>
+        <v>4105.703125</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>8</v>
@@ -1260,7 +1302,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1271,20 +1313,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>2649719</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" si="0">D12/1024</f>
-        <v>0</v>
+        <v>2587.6162109375</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>8</v>
@@ -1293,18 +1337,20 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>155123</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>151.4873046875</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>8</v>
@@ -1313,7 +1359,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1324,21 +1370,21 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5">
         <f>SUM(D12:D13)</f>
-        <v>0</v>
+        <v>2804842</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="5">
         <f>D15/1024</f>
-        <v>0</v>
+        <v>2739.103515625</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>8</v>
@@ -1347,7 +1393,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1358,18 +1404,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>2048</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="4">
         <f>D17/1024</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>8</v>
@@ -1378,7 +1426,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1389,7 +1437,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -1402,7 +1450,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -1429,7 +1477,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1440,7 +1488,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="12" t="s">
@@ -1449,14 +1497,14 @@
       <c r="E22" s="11"/>
       <c r="F22" s="2">
         <f>F20/D8</f>
-        <v>64800</v>
+        <v>1301.2048192771085</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1467,7 +1515,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1528,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>20</v>
@@ -1500,7 +1548,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1511,7 +1559,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="12" t="s">
         <v>22</v>
@@ -1520,27 +1568,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f>F22*F10*D4</f>
-        <v>0</v>
+        <v>2136944277.1084337</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="3">
         <f>F27/1024</f>
-        <v>0</v>
+        <v>2086859.6456137048</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="3">
         <f>H27/1024</f>
-        <v>0</v>
+        <v>2037.9488726696336</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1551,27 +1599,27 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="8">
         <f>F22*F15</f>
-        <v>0</v>
+        <v>3564134.6950301207</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
         <f>F29/1024</f>
-        <v>0</v>
+        <v>3480.6002881153522</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="3">
         <f>H29/1024</f>
-        <v>0</v>
+        <v>3.3990237188626486</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>24</v>
@@ -1596,34 +1644,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="8">
         <f>F22*F17</f>
-        <v>0</v>
+        <v>2602.4096385542171</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="3">
         <f>F33/1024</f>
-        <v>0</v>
+        <v>2.5414156626506026</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="3">
         <f>H33/1024</f>
-        <v>0</v>
+        <v>2.4818512330572291E-3</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="8">
         <f>J33*8</f>
-        <v>0</v>
+        <v>1.9854809864457833E-2</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>30</v>
@@ -1638,4 +1686,202 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8642F3C-64BB-2044-9C7A-536EB96F555A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B4:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7200</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7*D7</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2086859.6459999999</v>
+      </c>
+      <c r="H9" s="9">
+        <f>G9*D9</f>
+        <v>104342.9823</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.14891107398343373</v>
+      </c>
+      <c r="H11" s="9">
+        <f>G11*D11</f>
+        <v>1.4891107398343373E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1800</v>
+      </c>
+      <c r="H13" s="9">
+        <f>G13*D13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="9">
+        <f>SUM(H7:H13)</f>
+        <v>105566.9971911074</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="13">
+        <f>H16*30</f>
+        <v>3167009.9157332219</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="13">
+        <f>H18*12</f>
+        <v>38004118.988798663</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>